--- a/Part_3_Cleaning_and_Exploring_with_Pandas/data/nobel_winners_all_sheets.xlsx
+++ b/Part_3_Cleaning_and_Exploring_with_Pandas/data/nobel_winners_all_sheets.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>sex</t>
+          <t>gender</t>
         </is>
       </c>
     </row>
